--- a/branches/proxy_rewrite/addons/xvm-stat-log/const.xlsx
+++ b/branches/proxy_rewrite/addons/xvm-stat-log/const.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="VI2" sheetId="8" r:id="rId1"/>
+    <sheet name="VI" sheetId="8" r:id="rId1"/>
     <sheet name="VI3" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VI2'!$A$1:$C$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VI!$A$1:$C$271</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'VI3'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
